--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -527,6 +527,9 @@
       <c r="C11" t="str">
         <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -588,7 +591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015150</v>
+        <v>020151520510101515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,12 +528,92 @@
         <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -591,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151520510101515</v>
+        <v>020151520510101515715614515316650</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -610,6 +610,9 @@
       <c r="A21" t="str">
         <v>2</v>
       </c>
+      <c r="C21" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -613,6 +613,9 @@
       <c r="C21" t="str">
         <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F21" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151520510101515715614515316650</v>
+        <v>0201515205101015157156145153166512</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,9 +617,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>4</v>
+      </c>
+      <c r="C30" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512</v>
+        <v>0201515205101015157156145153166512206129.5152.91520400</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -699,6 +699,9 @@
       <c r="C31" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -760,7 +763,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.91520400</v>
+        <v>0201515205101015157156145153166512206129.5152.915204010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -703,9 +703,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>5</v>
+      </c>
+      <c r="C32" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F38" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>6</v>
+      </c>
+      <c r="C40" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -763,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.915204010</v>
+        <v>0201515205101015157156145153166512206129.5152.91520401015830123530255530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -785,6 +785,9 @@
       <c r="C41" t="str">
         <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -846,7 +849,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.91520401015830123530255530</v>
+        <v>0201515205101015157156145153166512206129.5152.91520401015830123530255531</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,12 +786,95 @@
         <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
         <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>278_红雷丝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -849,7 +932,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.91520401015830123530255531</v>
+        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081570</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -871,6 +871,9 @@
       <c r="C51" t="str">
         <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -932,7 +935,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081570</v>
+        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081578</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,9 +875,91 @@
         <v>8</v>
       </c>
     </row>
+    <row r="52" xml:space="preserve">
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F57" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -935,7 +1017,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081578</v>
+        <v>0201515205101015157156145153166512206129.5152.91520401015830123530255531510151010210815781515401510302010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -956,6 +956,9 @@
       <c r="C61" t="str">
         <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1017,7 +1020,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.91520401015830123530255531510151010210815781515401510302010150</v>
+        <v>0201515205101015157156145153166512206129.5152.915204010158301235302555315101510102108157815154015103020101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,9 +960,96 @@
         <v>10</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>4</v>
+      </c>
+      <c r="C62" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>362_蓬莱松_Asparagus_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>4</v>
+      </c>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>556_马尾松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7</v>
+      </c>
+      <c r="C69" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1020,7 +1107,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.915204010158301235302555315101510102108157815154015103020101510</v>
+        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081578151540151030201015101520153151052060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1046,10 +1046,22 @@
       <c r="C71" t="str">
         <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L72"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1107,7 +1119,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081578151540151030201015101520153151052060</v>
+        <v>0201515205101015157156145153166512206129.5152.9152040101583012353025553151015101021081578151540151030201015101520153151052062010</v>
       </c>
     </row>
   </sheetData>
